--- a/Review Frequency.xlsx
+++ b/Review Frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzk/LC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4C130-0374-CE48-8AB9-73352E5D3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CD6E1-06A3-5343-8F9B-FBD8E0DA8317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{0DD02203-B11B-3243-819C-F9AA5763577F}"/>
+    <workbookView xWindow="7040" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{0DD02203-B11B-3243-819C-F9AA5763577F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D575B-B902-A246-A468-BAD011D0C81E}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +529,106 @@
         <v>862</v>
       </c>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>2115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review Frequency.xlsx
+++ b/Review Frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzk/LC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CD6E1-06A3-5343-8F9B-FBD8E0DA8317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2093598-D789-6940-9B4E-03315DA23FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{0DD02203-B11B-3243-819C-F9AA5763577F}"/>
+    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{0DD02203-B11B-3243-819C-F9AA5763577F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>*highlighted problems need more practice</t>
+    <t>每周五全部review一遍，record没一次过的</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D575B-B902-A246-A468-BAD011D0C81E}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B40"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,6 +450,9 @@
       <c r="B3" s="1">
         <v>45625</v>
       </c>
+      <c r="C3" s="1">
+        <v>45632</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -458,143 +461,197 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>310</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>154</v>
       </c>
+      <c r="C5">
+        <v>378</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>209</v>
       </c>
+      <c r="C6">
+        <v>721</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>305</v>
       </c>
+      <c r="C7">
+        <v>785</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>315</v>
       </c>
+      <c r="C8">
+        <v>826</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>352</v>
       </c>
+      <c r="C9">
+        <v>851</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>354</v>
       </c>
+      <c r="C10">
+        <v>947</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>363</v>
       </c>
+      <c r="C11">
+        <v>1060</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>410</v>
       </c>
+      <c r="C12">
+        <v>1111</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>493</v>
       </c>
+      <c r="C13">
+        <v>1202</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>685</v>
       </c>
+      <c r="C14">
+        <v>1258</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>719</v>
       </c>
+      <c r="C15">
+        <v>1267</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>827</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>839</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>862</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>887</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1095</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1203</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1231</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1235</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1579</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>1591</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>2246</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2360</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>2392</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>81</v>
       </c>

--- a/Review Frequency.xlsx
+++ b/Review Frequency.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzk/LC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2093598-D789-6940-9B4E-03315DA23FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3012D786-EDBC-EA45-A493-D0BDF3FB1B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{0DD02203-B11B-3243-819C-F9AA5763577F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>每周五全部review一遍，record没一次过的</t>
+    <t>每周五全部review一遍，record没一次过的; highlight = reviewed</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>310</v>
       </c>
     </row>
@@ -469,7 +469,7 @@
       <c r="B5">
         <v>154</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>378</v>
       </c>
     </row>
@@ -477,7 +477,7 @@
       <c r="B6">
         <v>209</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>721</v>
       </c>
     </row>
@@ -485,7 +485,7 @@
       <c r="B7">
         <v>305</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>785</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
       <c r="B8">
         <v>315</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>826</v>
       </c>
     </row>
